--- a/xlsx/亚历山大·鲁利亚_intext.xlsx
+++ b/xlsx/亚历山大·鲁利亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>亚历山大·鲁利亚</t>
   </si>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%B6%AD%C2%B7%E7%B6%AD%E8%B0%B7%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>利維·維谷斯基</t>
+    <t>利维·维谷斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>心理學家</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1266,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
